--- a/data/trans_dic/P31_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>95,75%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91,25%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>91,7%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>93,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>94,17%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>90,6%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,64; 93,21</t>
+          <t>58,61; 95,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,98; 91,61</t>
+          <t>82,43; 93,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,25; 94,78</t>
+          <t>88,65; 94,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,6; 97,8</t>
+          <t>83,04; 94,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,74; 98,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,78; 97,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,33; 94,94</t>
+          <t>91,39; 98,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,46; 95,16</t>
+          <t>93,49; 98,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,47; 95,98</t>
+          <t>93,12; 97,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85,02; 94,92</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>77,22; 96,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>89,52; 95,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>92,06; 95,7</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>86,61; 93,68</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>79,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>87,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>87,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>83,63%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>76,94%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,89; 83,72</t>
+          <t>81,5; 89,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,07; 83,96</t>
+          <t>75,09; 83,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,03; 82,72</t>
+          <t>75,82; 83,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,47; 91,68</t>
+          <t>63,89; 75,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,08; 92,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,77; 90,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,26; 86,64</t>
+          <t>85,79; 92,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,22; 87,47</t>
+          <t>88,25; 93,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,67; 85,27</t>
+          <t>84,85; 90,29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79,14; 87,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>84,72; 89,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>82,61; 87,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>81,25; 85,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>73,25; 80,14</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,72%</t>
+          <t>80,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>76,53%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>81,54%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>76,48%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>75,01%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,18; 75,15</t>
+          <t>64,97; 76,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,3; 81,93</t>
+          <t>71,33; 81,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,54; 77,35</t>
+          <t>68,12; 76,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,45; 86,23</t>
+          <t>63,89; 75,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,2; 88,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,25; 83,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,2; 79,77</t>
+          <t>76,52; 85,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,06; 84,33</t>
+          <t>81,88; 88,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>73,8; 79,23</t>
+          <t>76,29; 83,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75,9; 84,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72,66; 80,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>78,33; 84,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>73,54; 79,24</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>71,15; 78,72</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>68,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>83,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>86,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>75,28%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,54; 81,15</t>
+          <t>71,27; 80,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,9; 83,73</t>
+          <t>76,67; 85,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,46; 82,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,67; 90,5</t>
+          <t>62,33; 74,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,38; 92,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,66; 88,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,81; 85,37</t>
+          <t>87,17; 92,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,85; 87,6</t>
+          <t>88,53; 94,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,11; 85,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>77,53; 86,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>80,4; 85,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>83,16; 88,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 78,92</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>78,78%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>72,04%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>87,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>83,81%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>85,93%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>83,78%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>78,08%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75,85; 81,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>78,58; 83,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77,77; 82,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69,04; 75,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86,95; 90,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89,08; 91,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85,57; 88,82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>81,54; 85,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>82,13; 85,34</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>84,57; 87,27</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>82,2; 85,19</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>76,15; 80,0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>294309</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>454834</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>669874</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>383385</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>399306</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>594717</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>859098</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>557089</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>693614</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1049551</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1528971</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>940474</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>198827; 323357</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>419159; 476886</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>643896; 688813</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>354993; 404237</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>381252; 410885</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>577322; 606188</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>835575; 875153</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>519041; 579500</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>584108; 726447</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1007958; 1073056</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1494728; 1553753</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>899009; 972452</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>873.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1073.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>790486</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>954941</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1291850</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>727220</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>889698</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1097481</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1310125</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>872163</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1680184</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2052423</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2601975</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1599383</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>755651; 827353</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>897006; 999301</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1228251; 1351150</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>664609; 785689</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>852585; 915330</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1064273; 1126103</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1265547; 1346730</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>821794; 911261</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1627383; 1726013</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1983006; 2103416</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2528138; 2672846</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1522567; 1665791</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>662.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>510617</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>653045</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>791537</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>568937</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>617937</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>787440</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>927898</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>673911</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1128554</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1440485</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1719436</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1242848</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>464947; 550631</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>603202; 688288</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>741655; 837665</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>521579; 619172</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>580793; 647623</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>754104; 816767</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>884616; 966070</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>638101; 708108</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1071485; 1180838</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1383906; 1490133</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1653459; 1781581</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1178980; 1304398</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>558.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1096760</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>690681</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>701735</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1232399</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>689759</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>784180</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2329159</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1380441</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1485914</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1022918; 1149770</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>649390; 726331</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>636707; 763310</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1195295; 1265890</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>665971; 709386</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>738370; 821944</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2256268; 2392305</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1330031; 1422395</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1402465; 1557799</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>901.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1095.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>721.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1172.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1450.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1445.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2073.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2545.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2519.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1740.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2692172</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2753502</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2753261</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2381277</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3139340</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3169397</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3097121</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2887342</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5831511</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5922900</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5850382</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5268619</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2592020; 2787834</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2668499; 2832097</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2671520; 2830098</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2282194; 2485340</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3078921; 3197348</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3114968; 3214874</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3036117; 3151595</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2806569; 2958270</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5714947; 5938202</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5829003; 6014756</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5740347; 5948857</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5138027; 5398079</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
